--- a/All_IDs.xlsx
+++ b/All_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliza\Desktop\ASC_small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2CD47B-0909-4B5E-9359-7556623DDEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A26EFD-20AF-40B3-A9FD-2B82964F52C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19935" yWindow="2475" windowWidth="18135" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -697,7 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,10 +1019,10 @@
   <dimension ref="A1:CO85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="U31" sqref="S31:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,8 +1034,8 @@
     <col min="6" max="6" width="27.85546875" style="10" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="10" customWidth="1"/>
     <col min="8" max="22" width="25.7109375" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" style="27" customWidth="1"/>
-    <col min="24" max="24" width="25.7109375" style="26" customWidth="1"/>
+    <col min="23" max="23" width="25.7109375" style="26" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" customWidth="1"/>
     <col min="25" max="25" width="25.7109375" style="10" customWidth="1"/>
     <col min="26" max="38" width="25.7109375" customWidth="1"/>
     <col min="39" max="39" width="25.7109375" style="21" customWidth="1"/>
@@ -1116,7 +1115,7 @@
       <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="28" t="s">
         <v>150</v>
       </c>
       <c r="X1" s="4" t="s">
@@ -1392,7 +1391,7 @@
       <c r="V2">
         <v>80</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X2">
@@ -1672,7 +1671,7 @@
       <c r="V3">
         <v>60</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X3">
@@ -1952,7 +1951,7 @@
       <c r="V4">
         <v>58</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X4">
@@ -2232,7 +2231,7 @@
       <c r="V5">
         <v>78</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X5">
@@ -2512,7 +2511,7 @@
       <c r="V6">
         <v>60</v>
       </c>
-      <c r="W6" s="27" t="s">
+      <c r="W6" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X6">
@@ -2792,7 +2791,7 @@
       <c r="V7">
         <v>88</v>
       </c>
-      <c r="W7" s="27" t="s">
+      <c r="W7" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X7">
@@ -3072,7 +3071,7 @@
       <c r="V8">
         <v>82</v>
       </c>
-      <c r="W8" s="27" t="s">
+      <c r="W8" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X8">
@@ -3352,7 +3351,7 @@
       <c r="V9">
         <v>53</v>
       </c>
-      <c r="W9" s="27" t="s">
+      <c r="W9" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X9">
@@ -3632,7 +3631,7 @@
       <c r="V10">
         <v>75</v>
       </c>
-      <c r="W10" s="27" t="s">
+      <c r="W10" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X10">
@@ -3912,7 +3911,7 @@
       <c r="V11">
         <v>78</v>
       </c>
-      <c r="W11" s="27" t="s">
+      <c r="W11" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X11">
@@ -4192,7 +4191,7 @@
       <c r="V12">
         <v>80</v>
       </c>
-      <c r="W12" s="27" t="s">
+      <c r="W12" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X12">
@@ -4472,7 +4471,7 @@
       <c r="V13">
         <v>53</v>
       </c>
-      <c r="W13" s="27" t="s">
+      <c r="W13" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X13">
@@ -4752,7 +4751,7 @@
       <c r="V14">
         <v>72</v>
       </c>
-      <c r="W14" s="27" t="s">
+      <c r="W14" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X14">
@@ -5032,7 +5031,7 @@
       <c r="V15">
         <v>78</v>
       </c>
-      <c r="W15" s="27" t="s">
+      <c r="W15" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X15">
@@ -5312,7 +5311,7 @@
       <c r="V16">
         <v>82</v>
       </c>
-      <c r="W16" s="27" t="s">
+      <c r="W16" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X16">
@@ -5592,7 +5591,7 @@
       <c r="V17">
         <v>65</v>
       </c>
-      <c r="W17" s="27" t="s">
+      <c r="W17" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X17">
@@ -5872,7 +5871,7 @@
       <c r="V18">
         <v>75</v>
       </c>
-      <c r="W18" s="27" t="s">
+      <c r="W18" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X18">
@@ -6152,7 +6151,7 @@
       <c r="V19">
         <v>68</v>
       </c>
-      <c r="W19" s="27" t="s">
+      <c r="W19" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X19">
@@ -6432,7 +6431,7 @@
       <c r="V20">
         <v>75</v>
       </c>
-      <c r="W20" s="27" t="s">
+      <c r="W20" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X20">
@@ -6712,7 +6711,7 @@
       <c r="V21">
         <v>68</v>
       </c>
-      <c r="W21" s="27" t="s">
+      <c r="W21" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X21">
@@ -6992,7 +6991,7 @@
       <c r="V22">
         <v>90</v>
       </c>
-      <c r="W22" s="27" t="s">
+      <c r="W22" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X22">
@@ -7272,7 +7271,7 @@
       <c r="V23">
         <v>67</v>
       </c>
-      <c r="W23" s="27" t="s">
+      <c r="W23" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X23">
@@ -7552,7 +7551,7 @@
       <c r="V24">
         <v>90</v>
       </c>
-      <c r="W24" s="27" t="s">
+      <c r="W24" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X24">
@@ -7832,7 +7831,7 @@
       <c r="V25">
         <v>75</v>
       </c>
-      <c r="W25" s="27" t="s">
+      <c r="W25" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X25">
@@ -8112,7 +8111,7 @@
       <c r="V26">
         <v>90</v>
       </c>
-      <c r="W26" s="27" t="s">
+      <c r="W26" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X26">
@@ -8392,7 +8391,7 @@
       <c r="V27">
         <v>70</v>
       </c>
-      <c r="W27" s="27" t="s">
+      <c r="W27" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X27">
@@ -8672,7 +8671,7 @@
       <c r="V28">
         <v>70</v>
       </c>
-      <c r="W28" s="27" t="s">
+      <c r="W28" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X28">
@@ -8952,7 +8951,7 @@
       <c r="V29">
         <v>83</v>
       </c>
-      <c r="W29" s="27" t="s">
+      <c r="W29" s="26" t="s">
         <v>154</v>
       </c>
       <c r="X29">
@@ -9232,7 +9231,7 @@
       <c r="V30">
         <v>83</v>
       </c>
-      <c r="W30" s="27" t="s">
+      <c r="W30" s="26" t="s">
         <v>151</v>
       </c>
       <c r="X30">
@@ -9501,10 +9500,10 @@
       <c r="R31" s="12">
         <v>83</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="12">
         <v>100</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="12">
         <v>78</v>
       </c>
       <c r="U31" s="12">
@@ -9513,7 +9512,7 @@
       <c r="V31" s="12">
         <v>83</v>
       </c>
-      <c r="W31" s="28" t="s">
+      <c r="W31" s="27" t="s">
         <v>151</v>
       </c>
       <c r="X31" s="19">
@@ -9793,7 +9792,7 @@
       <c r="V32">
         <v>55</v>
       </c>
-      <c r="W32" s="27" t="s">
+      <c r="W32" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X32">
@@ -10073,7 +10072,7 @@
       <c r="V33">
         <v>48</v>
       </c>
-      <c r="W33" s="27" t="s">
+      <c r="W33" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X33">
@@ -10353,7 +10352,7 @@
       <c r="V34">
         <v>43</v>
       </c>
-      <c r="W34" s="27" t="s">
+      <c r="W34" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X34">
@@ -10633,7 +10632,7 @@
       <c r="V35">
         <v>50</v>
       </c>
-      <c r="W35" s="27" t="s">
+      <c r="W35" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X35">
@@ -10913,7 +10912,7 @@
       <c r="V36">
         <v>48</v>
       </c>
-      <c r="W36" s="27" t="s">
+      <c r="W36" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X36">
@@ -11193,7 +11192,7 @@
       <c r="V37">
         <v>45</v>
       </c>
-      <c r="W37" s="27" t="s">
+      <c r="W37" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X37">
@@ -11473,7 +11472,7 @@
       <c r="V38">
         <v>62</v>
       </c>
-      <c r="W38" s="27" t="s">
+      <c r="W38" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X38">
@@ -11753,7 +11752,7 @@
       <c r="V39">
         <v>60</v>
       </c>
-      <c r="W39" s="27" t="s">
+      <c r="W39" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X39">
@@ -12033,7 +12032,7 @@
       <c r="V40">
         <v>47</v>
       </c>
-      <c r="W40" s="27" t="s">
+      <c r="W40" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X40">
@@ -12313,7 +12312,7 @@
       <c r="V41">
         <v>48</v>
       </c>
-      <c r="W41" s="27" t="s">
+      <c r="W41" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X41">
@@ -12545,11 +12544,10 @@
         <v>83</v>
       </c>
       <c r="F42" s="18"/>
-      <c r="G42" s="26"/>
+      <c r="G42"/>
       <c r="K42">
         <v>4</v>
       </c>
-      <c r="X42"/>
       <c r="Y42" s="10">
         <v>13250</v>
       </c>
@@ -12824,7 +12822,7 @@
       <c r="V43">
         <v>48</v>
       </c>
-      <c r="W43" s="27" t="s">
+      <c r="W43" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X43">
@@ -13104,7 +13102,7 @@
       <c r="V44">
         <v>63</v>
       </c>
-      <c r="W44" s="27" t="s">
+      <c r="W44" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X44">
@@ -13384,7 +13382,7 @@
       <c r="V45">
         <v>47</v>
       </c>
-      <c r="W45" s="27" t="s">
+      <c r="W45" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X45">
@@ -13664,7 +13662,7 @@
       <c r="V46">
         <v>58</v>
       </c>
-      <c r="W46" s="27" t="s">
+      <c r="W46" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X46">
@@ -13944,7 +13942,7 @@
       <c r="V47">
         <v>45</v>
       </c>
-      <c r="W47" s="27" t="s">
+      <c r="W47" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X47">
@@ -14224,7 +14222,7 @@
       <c r="V48">
         <v>48</v>
       </c>
-      <c r="W48" s="27" t="s">
+      <c r="W48" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X48">
@@ -14504,7 +14502,7 @@
       <c r="V49">
         <v>47</v>
       </c>
-      <c r="W49" s="27" t="s">
+      <c r="W49" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X49">
@@ -14784,7 +14782,7 @@
       <c r="V50">
         <v>40</v>
       </c>
-      <c r="W50" s="27" t="s">
+      <c r="W50" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X50">
@@ -15064,7 +15062,7 @@
       <c r="V51">
         <v>52</v>
       </c>
-      <c r="W51" s="27" t="s">
+      <c r="W51" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X51">
@@ -15344,7 +15342,7 @@
       <c r="V52">
         <v>45</v>
       </c>
-      <c r="W52" s="27" t="s">
+      <c r="W52" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X52">
@@ -15624,7 +15622,7 @@
       <c r="V53">
         <v>52</v>
       </c>
-      <c r="W53" s="27" t="s">
+      <c r="W53" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X53">
@@ -15904,7 +15902,7 @@
       <c r="V54">
         <v>55</v>
       </c>
-      <c r="W54" s="27" t="s">
+      <c r="W54" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X54">
@@ -16184,7 +16182,7 @@
       <c r="V55">
         <v>45</v>
       </c>
-      <c r="W55" s="27" t="s">
+      <c r="W55" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X55">
@@ -16464,7 +16462,7 @@
       <c r="V56">
         <v>45</v>
       </c>
-      <c r="W56" s="27" t="s">
+      <c r="W56" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X56">
@@ -16744,7 +16742,7 @@
       <c r="V57">
         <v>62</v>
       </c>
-      <c r="W57" s="27" t="s">
+      <c r="W57" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X57">
@@ -17024,7 +17022,7 @@
       <c r="V58">
         <v>62</v>
       </c>
-      <c r="W58" s="27" t="s">
+      <c r="W58" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X58">
@@ -17304,7 +17302,7 @@
       <c r="V59">
         <v>72</v>
       </c>
-      <c r="W59" s="27" t="s">
+      <c r="W59" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X59">
@@ -17584,7 +17582,7 @@
       <c r="V60">
         <v>50</v>
       </c>
-      <c r="W60" s="27" t="s">
+      <c r="W60" s="26" t="s">
         <v>152</v>
       </c>
       <c r="X60">
@@ -17864,7 +17862,7 @@
       <c r="V61">
         <v>58</v>
       </c>
-      <c r="W61" s="27" t="s">
+      <c r="W61" s="26" t="s">
         <v>153</v>
       </c>
       <c r="X61">

--- a/All_IDs.xlsx
+++ b/All_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliza\Desktop\ASC_small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A26EFD-20AF-40B3-A9FD-2B82964F52C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B192017E-DF54-4E57-A2B3-5C7B59B45AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,10 +1019,10 @@
   <dimension ref="A1:CO85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U31" sqref="S31:U31"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/All_IDs.xlsx
+++ b/All_IDs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliza\Desktop\ASC_small\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nask.man.ac.uk\home$\Desktop\ASC_small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B192017E-DF54-4E57-A2B3-5C7B59B45AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,7 +511,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -702,6 +701,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,24 +1015,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="18" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="29" customWidth="1"/>
     <col min="8" max="22" width="25.7109375" customWidth="1"/>
     <col min="23" max="23" width="25.7109375" style="26" customWidth="1"/>
     <col min="24" max="24" width="25.7109375" customWidth="1"/>
@@ -1058,10 +1059,10 @@
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F1" s="17" t="s">
@@ -1339,10 +1340,15 @@
       <c r="C2" s="10">
         <v>37</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="E2">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F2" s="18">
+        <v>100</v>
+      </c>
       <c r="G2">
         <v>124</v>
       </c>
@@ -1619,10 +1625,15 @@
       <c r="C3" s="10">
         <v>38</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="E3">
+        <v>75</v>
+      </c>
+      <c r="F3" s="18">
+        <v>100</v>
+      </c>
       <c r="G3">
         <v>82</v>
       </c>
@@ -1899,10 +1910,15 @@
       <c r="C4" s="10">
         <v>47</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4" s="18">
+        <v>90</v>
+      </c>
       <c r="G4">
         <v>54</v>
       </c>
@@ -2179,10 +2195,15 @@
       <c r="C5" s="10">
         <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5" s="18">
+        <v>100</v>
+      </c>
       <c r="G5">
         <v>123</v>
       </c>
@@ -2459,10 +2480,15 @@
       <c r="C6" s="10">
         <v>46</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="E6">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F6" s="18">
+        <v>100</v>
+      </c>
       <c r="G6">
         <v>89</v>
       </c>
@@ -2739,10 +2765,15 @@
       <c r="C7" s="10">
         <v>41</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7" s="18">
+        <v>100</v>
+      </c>
       <c r="G7">
         <v>146</v>
       </c>
@@ -3019,10 +3050,15 @@
       <c r="C8" s="10">
         <v>33</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="E8">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F8" s="18">
+        <v>100</v>
+      </c>
       <c r="G8">
         <v>129</v>
       </c>
@@ -3299,10 +3335,15 @@
       <c r="C9" s="10">
         <v>32</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="E9">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F9" s="18">
+        <v>90</v>
+      </c>
       <c r="G9">
         <v>80</v>
       </c>
@@ -3579,10 +3620,15 @@
       <c r="C10" s="10">
         <v>26</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="E10">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F10" s="18">
+        <v>90</v>
+      </c>
       <c r="G10">
         <v>113</v>
       </c>
@@ -3859,10 +3905,15 @@
       <c r="C11" s="10">
         <v>35</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="E11">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F11" s="18">
+        <v>100</v>
+      </c>
       <c r="G11">
         <v>99</v>
       </c>
@@ -4139,10 +4190,15 @@
       <c r="C12" s="10">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="E12">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F12" s="18">
+        <v>100</v>
+      </c>
       <c r="G12">
         <v>101</v>
       </c>
@@ -4419,10 +4475,15 @@
       <c r="C13" s="10">
         <v>30</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="E13">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F13" s="18">
+        <v>100</v>
+      </c>
       <c r="G13">
         <v>61</v>
       </c>
@@ -4699,10 +4760,15 @@
       <c r="C14" s="10">
         <v>46</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="E14">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F14" s="18">
+        <v>100</v>
+      </c>
       <c r="G14">
         <v>125</v>
       </c>
@@ -4979,10 +5045,15 @@
       <c r="C15" s="10">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="E15">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F15" s="18">
+        <v>100</v>
+      </c>
       <c r="G15">
         <v>89</v>
       </c>
@@ -5259,10 +5330,15 @@
       <c r="C16" s="10">
         <v>42</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="E16">
+        <v>75</v>
+      </c>
+      <c r="F16" s="18">
+        <v>100</v>
+      </c>
       <c r="G16">
         <v>124</v>
       </c>
@@ -5539,10 +5615,15 @@
       <c r="C17" s="10">
         <v>43</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="E17">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F17" s="18">
+        <v>90</v>
+      </c>
       <c r="G17">
         <v>100</v>
       </c>
@@ -5819,10 +5900,15 @@
       <c r="C18" s="10">
         <v>39</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="E18">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F18" s="18">
+        <v>100</v>
+      </c>
       <c r="G18">
         <v>98</v>
       </c>
@@ -6099,10 +6185,15 @@
       <c r="C19" s="10">
         <v>40</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="E19">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F19" s="18">
+        <v>100</v>
+      </c>
       <c r="G19">
         <v>97</v>
       </c>
@@ -6379,10 +6470,15 @@
       <c r="C20" s="10">
         <v>46</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="E20">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F20" s="18">
+        <v>80</v>
+      </c>
       <c r="G20">
         <v>112</v>
       </c>
@@ -6659,10 +6755,15 @@
       <c r="C21" s="10">
         <v>42</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="E21">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F21" s="18">
+        <v>100</v>
+      </c>
       <c r="G21">
         <v>95</v>
       </c>
@@ -6939,10 +7040,15 @@
       <c r="C22" s="10">
         <v>39</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="E22">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F22" s="18">
+        <v>90</v>
+      </c>
       <c r="G22">
         <v>119</v>
       </c>
@@ -7219,10 +7325,15 @@
       <c r="C23" s="10">
         <v>37</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="E23">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F23" s="18">
+        <v>90</v>
+      </c>
       <c r="G23">
         <v>96</v>
       </c>
@@ -7499,10 +7610,15 @@
       <c r="C24" s="10">
         <v>41</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="E24">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F24" s="18">
+        <v>100</v>
+      </c>
       <c r="G24">
         <v>149</v>
       </c>
@@ -7779,10 +7895,15 @@
       <c r="C25" s="10">
         <v>47</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="E25">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F25" s="18">
+        <v>100</v>
+      </c>
       <c r="G25">
         <v>102</v>
       </c>
@@ -8059,10 +8180,15 @@
       <c r="C26" s="10">
         <v>35</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="E26">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F26" s="18">
+        <v>100</v>
+      </c>
       <c r="G26">
         <v>99</v>
       </c>
@@ -8339,10 +8465,15 @@
       <c r="C27" s="10">
         <v>31</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="E27">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F27" s="18">
+        <v>90</v>
+      </c>
       <c r="G27">
         <v>74</v>
       </c>
@@ -8619,10 +8750,15 @@
       <c r="C28" s="10">
         <v>27</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="E28">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F28" s="18">
+        <v>100</v>
+      </c>
       <c r="G28">
         <v>84</v>
       </c>
@@ -8899,10 +9035,15 @@
       <c r="C29" s="10">
         <v>28</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="E29">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F29" s="18">
+        <v>80</v>
+      </c>
       <c r="G29">
         <v>111</v>
       </c>
@@ -9179,10 +9320,15 @@
       <c r="C30" s="10">
         <v>30</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="E30">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F30" s="18">
+        <v>100</v>
+      </c>
       <c r="G30">
         <v>131</v>
       </c>
@@ -9459,11 +9605,15 @@
       <c r="C31" s="13">
         <v>21</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="19"/>
+      <c r="E31" s="13">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F31" s="19">
+        <v>100</v>
+      </c>
       <c r="G31" s="12">
         <v>126</v>
       </c>
@@ -9740,10 +9890,15 @@
       <c r="C32" s="10">
         <v>22</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="E32">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F32" s="18">
+        <v>100</v>
+      </c>
       <c r="G32">
         <v>51</v>
       </c>
@@ -10020,10 +10175,15 @@
       <c r="C33" s="10">
         <v>38</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="E33">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F33" s="18">
+        <v>80</v>
+      </c>
       <c r="G33">
         <v>33</v>
       </c>
@@ -10300,10 +10460,15 @@
       <c r="C34" s="10">
         <v>27</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="E34">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F34" s="18">
+        <v>100</v>
+      </c>
       <c r="G34">
         <v>25</v>
       </c>
@@ -10580,10 +10745,15 @@
       <c r="C35" s="10">
         <v>49</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="E35">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F35" s="18">
+        <v>100</v>
+      </c>
       <c r="G35">
         <v>36</v>
       </c>
@@ -10860,10 +11030,15 @@
       <c r="C36" s="10">
         <v>36</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="E36">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F36" s="18">
+        <v>70</v>
+      </c>
       <c r="G36">
         <v>34</v>
       </c>
@@ -11140,10 +11315,15 @@
       <c r="C37" s="10">
         <v>38</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="E37">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F37" s="18">
+        <v>70</v>
+      </c>
       <c r="G37">
         <v>28</v>
       </c>
@@ -11420,10 +11600,15 @@
       <c r="C38" s="10">
         <v>27</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="E38">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F38" s="18">
+        <v>100</v>
+      </c>
       <c r="G38">
         <v>68</v>
       </c>
@@ -11700,10 +11885,15 @@
       <c r="C39" s="10">
         <v>22</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="E39">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F39" s="18">
+        <v>90</v>
+      </c>
       <c r="G39">
         <v>71</v>
       </c>
@@ -11980,10 +12170,15 @@
       <c r="C40" s="10">
         <v>39</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="E40">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F40" s="18">
+        <v>100</v>
+      </c>
       <c r="G40">
         <v>45</v>
       </c>
@@ -12260,10 +12455,15 @@
       <c r="C41" s="10">
         <v>32</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="E41">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F41" s="18">
+        <v>60</v>
+      </c>
       <c r="G41">
         <v>27</v>
       </c>
@@ -12540,10 +12740,10 @@
       <c r="C42" s="10">
         <v>43</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="E42"/>
       <c r="G42"/>
       <c r="K42">
         <v>4</v>
@@ -12770,10 +12970,15 @@
       <c r="C43" s="10">
         <v>27</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="E43">
+        <v>75</v>
+      </c>
+      <c r="F43" s="18">
+        <v>100</v>
+      </c>
       <c r="G43">
         <v>24</v>
       </c>
@@ -13050,10 +13255,15 @@
       <c r="C44" s="10">
         <v>27</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="E44">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F44" s="18">
+        <v>100</v>
+      </c>
       <c r="G44">
         <v>50</v>
       </c>
@@ -13330,10 +13540,15 @@
       <c r="C45" s="10">
         <v>34</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="E45">
+        <v>75</v>
+      </c>
+      <c r="F45" s="18">
+        <v>80</v>
+      </c>
       <c r="G45">
         <v>23</v>
       </c>
@@ -13610,10 +13825,15 @@
       <c r="C46" s="10">
         <v>28</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="E46">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F46" s="18">
+        <v>100</v>
+      </c>
       <c r="G46">
         <v>42</v>
       </c>
@@ -13890,10 +14110,15 @@
       <c r="C47" s="10">
         <v>33</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="18"/>
+      <c r="E47">
+        <v>75</v>
+      </c>
+      <c r="F47" s="18">
+        <v>90</v>
+      </c>
       <c r="G47">
         <v>26</v>
       </c>
@@ -14170,10 +14395,15 @@
       <c r="C48" s="10">
         <v>28</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="E48">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F48" s="18">
+        <v>100</v>
+      </c>
       <c r="G48">
         <v>35</v>
       </c>
@@ -14450,10 +14680,15 @@
       <c r="C49" s="10">
         <v>30</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="E49">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F49" s="18">
+        <v>100</v>
+      </c>
       <c r="G49">
         <v>41</v>
       </c>
@@ -14730,10 +14965,15 @@
       <c r="C50" s="10">
         <v>32</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="18"/>
+      <c r="E50">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F50" s="18">
+        <v>100</v>
+      </c>
       <c r="G50">
         <v>19</v>
       </c>
@@ -15010,10 +15250,15 @@
       <c r="C51" s="10">
         <v>48</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="18"/>
+      <c r="E51">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F51" s="18">
+        <v>100</v>
+      </c>
       <c r="G51">
         <v>27</v>
       </c>
@@ -15290,10 +15535,15 @@
       <c r="C52" s="10">
         <v>38</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="18"/>
+      <c r="E52">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F52" s="18">
+        <v>100</v>
+      </c>
       <c r="G52">
         <v>18</v>
       </c>
@@ -15570,10 +15820,15 @@
       <c r="C53" s="10">
         <v>24</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="18"/>
+      <c r="E53">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F53" s="18">
+        <v>90</v>
+      </c>
       <c r="G53">
         <v>46</v>
       </c>
@@ -15850,10 +16105,15 @@
       <c r="C54" s="10">
         <v>19</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="18"/>
+      <c r="E54">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F54" s="18">
+        <v>90</v>
+      </c>
       <c r="G54">
         <v>42</v>
       </c>
@@ -16130,10 +16390,15 @@
       <c r="C55" s="10">
         <v>19</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="18"/>
+      <c r="E55">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F55" s="18">
+        <v>100</v>
+      </c>
       <c r="G55">
         <v>27</v>
       </c>
@@ -16410,10 +16675,15 @@
       <c r="C56" s="10">
         <v>20</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="18"/>
+      <c r="E56">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F56" s="18">
+        <v>100</v>
+      </c>
       <c r="G56">
         <v>34</v>
       </c>
@@ -16690,10 +16960,15 @@
       <c r="C57" s="10">
         <v>20</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="18"/>
+      <c r="E57">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F57" s="18">
+        <v>100</v>
+      </c>
       <c r="G57">
         <v>68</v>
       </c>
@@ -16970,10 +17245,15 @@
       <c r="C58" s="10">
         <v>20</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="18"/>
+      <c r="E58">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F58" s="18">
+        <v>100</v>
+      </c>
       <c r="G58">
         <v>56</v>
       </c>
@@ -17250,10 +17530,15 @@
       <c r="C59" s="10">
         <v>19</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="18"/>
+      <c r="E59">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F59" s="18">
+        <v>90</v>
+      </c>
       <c r="G59">
         <v>68</v>
       </c>
@@ -17530,10 +17815,15 @@
       <c r="C60" s="10">
         <v>40</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="18"/>
+      <c r="E60">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F60" s="18">
+        <v>90</v>
+      </c>
       <c r="G60">
         <v>76</v>
       </c>
@@ -17810,10 +18100,15 @@
       <c r="C61" s="10">
         <v>43</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="18"/>
+      <c r="E61">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F61" s="18">
+        <v>90</v>
+      </c>
       <c r="G61">
         <v>57</v>
       </c>
